--- a/PythonResources/Data/Consumption/Sympheny/post_1345_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1345_hea.xlsx
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>46.56488504874651</v>
+        <v>46.5648850487465</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43.46419345970948</v>
+        <v>43.46419345970947</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.706818180486042</v>
+        <v>8.706818180486041</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>12.01312841024788</v>
+        <v>12.01312841024787</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>23.68781838504963</v>
+        <v>23.68781838504962</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>29.73557372465742</v>
+        <v>29.73557372465741</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>32.14754837284029</v>
+        <v>32.14754837284028</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>31.83366929043399</v>
+        <v>31.83366929043398</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>49.24765733665247</v>
+        <v>49.24765733665246</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>57.36953503107433</v>
+        <v>57.36953503107432</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>31.86561403364808</v>
+        <v>31.86561403364807</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>38.50132849101826</v>
+        <v>38.50132849101825</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>33.10295995887628</v>
+        <v>33.10295995887627</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>34.96542640956913</v>
+        <v>34.96542640956912</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>36.16027703419143</v>
+        <v>36.16027703419142</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>40.64162628636206</v>
+        <v>40.64162628636205</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>41.76232993820305</v>
+        <v>41.76232993820304</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>43.17639769974404</v>
+        <v>43.17639769974403</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>36.37158125306626</v>
+        <v>36.37158125306625</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>59.08136296789525</v>
+        <v>59.08136296789524</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>28.08866102289999</v>
+        <v>28.08866102289998</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>36.5676457779307</v>
+        <v>36.56764577793069</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>46.042632457852</v>
+        <v>46.04263245785199</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>55.29341979319736</v>
+        <v>55.29341979319735</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>2.062587078732363</v>
+        <v>2.062587078732362</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>39.43388053603866</v>
+        <v>39.43388053603865</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>34.68759506491817</v>
+        <v>34.68759506491816</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>1.684361319077577</v>
+        <v>1.684361319077576</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>26.95110578633598</v>
+        <v>26.95110578633597</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>33.24568555470435</v>
+        <v>33.24568555470434</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>34.38192197159439</v>
+        <v>34.38192197159438</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>39.50011459077612</v>
+        <v>39.50011459077611</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>32.68005845008796</v>
+        <v>32.68005845008795</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>17.45742117414809</v>
+        <v>17.45742117414808</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>40.31016294163608</v>
+        <v>40.31016294163607</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>77.20663442494481</v>
+        <v>77.2066344249448</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>77.7192156715635</v>
+        <v>77.71921567156349</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>53.67009931005217</v>
+        <v>53.67009931005216</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>62.76819663425497</v>
+        <v>62.76819663425496</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>70.00968892853815</v>
+        <v>70.00968892853814</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>76.62107848969944</v>
+        <v>76.62107848969943</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>83.04373030196282</v>
+        <v>83.04373030196281</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>57.83082884592729</v>
+        <v>57.83082884592728</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>66.53181491274397</v>
+        <v>66.53181491274395</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>87.59922652691478</v>
+        <v>87.59922652691476</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>87.88936685518951</v>
+        <v>87.88936685518949</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>94.12328091855498</v>
+        <v>94.12328091855495</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>81.37469073678646</v>
+        <v>81.37469073678645</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>76.64159346240574</v>
+        <v>76.64159346240572</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>82.28936544844852</v>
+        <v>82.28936544844851</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>84.65855172498684</v>
+        <v>84.65855172498682</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>85.24733144165748</v>
+        <v>85.24733144165747</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>87.24490364117321</v>
+        <v>87.2449036411732</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>85.60370582466967</v>
+        <v>85.60370582466966</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>75.0997467280084</v>
+        <v>75.09974672800838</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>72.01195026467246</v>
+        <v>72.01195026467245</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>78.28161899475462</v>
+        <v>78.28161899475461</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>40.79167865815667</v>
+        <v>40.79167865815666</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>56.89534609052027</v>
+        <v>56.89534609052026</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>113.3144517432159</v>
+        <v>113.3144517432158</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>46.39695534359356</v>
+        <v>46.39695534359355</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>88.09803343471638</v>
+        <v>88.09803343471637</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>86.77598997931506</v>
+        <v>86.77598997931504</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>79.72411464704577</v>
+        <v>79.72411464704575</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>82.09330092358408</v>
+        <v>82.09330092358407</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>69.42882212991137</v>
+        <v>69.42882212991135</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>70.46863817508182</v>
+        <v>70.46863817508181</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>46.40164448021214</v>
+        <v>46.40164448021213</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>56.16970219879478</v>
+        <v>56.16970219879477</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>56.25850272350917</v>
+        <v>56.25850272350916</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>57.03602018907772</v>
+        <v>57.03602018907771</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>60.09831947205012</v>
+        <v>60.09831947205011</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>87.78210285503945</v>
+        <v>87.78210285503944</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>74.79641820299391</v>
+        <v>74.79641820299389</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>86.91842250410447</v>
+        <v>86.91842250410446</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>33.9004062550738</v>
+        <v>33.90040625507379</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>59.68772694688557</v>
+        <v>59.68772694688556</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>60.73252519971327</v>
+        <v>60.73252519971326</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>60.59448874050377</v>
+        <v>60.59448874050376</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>60.89049048955173</v>
+        <v>60.89049048955172</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>79.02865707230239</v>
+        <v>79.02865707230238</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>81.14082004793471</v>
+        <v>81.1408200479347</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>72.88618117299926</v>
+        <v>72.88618117299924</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>39.83656014315935</v>
+        <v>39.83656014315934</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>59.56786089207308</v>
+        <v>59.56786089207307</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>61.52235164890559</v>
+        <v>61.52235164890558</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>768</v>
       </c>
       <c r="B768">
-        <v>63.69283576123152</v>
+        <v>63.69283576123151</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>62.55659934434148</v>
+        <v>62.55659934434147</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>67.41601023638525</v>
+        <v>67.41601023638523</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>62.30690281940201</v>
+        <v>62.306902819402</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>60.22551230282914</v>
+        <v>60.22551230282913</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>58.22823317435207</v>
+        <v>58.22823317435206</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>61.49392375815544</v>
+        <v>61.49392375815543</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>73.71615835448819</v>
+        <v>73.71615835448817</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>80.44536247319134</v>
+        <v>80.44536247319132</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>78.85984815403346</v>
+        <v>78.85984815403344</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>83.55836304585215</v>
+        <v>83.55836304585213</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>86.38122329023822</v>
+        <v>86.38122329023821</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>64.33348905174522</v>
+        <v>64.3334890517452</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>91.13952467394382</v>
+        <v>91.1395246739438</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>60.21261717712804</v>
+        <v>60.21261717712803</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>52.90342547291409</v>
+        <v>52.90342547291408</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>93.06881132145146</v>
+        <v>93.06881132145143</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>58.10572948019163</v>
+        <v>58.10572948019162</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>79.48233104015016</v>
+        <v>79.48233104015014</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>78.91875543280439</v>
+        <v>78.91875543280437</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>78.50611141036921</v>
+        <v>78.5061114103692</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>82.11117825694242</v>
+        <v>82.11117825694241</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>80.9725972717431</v>
+        <v>80.97259727174308</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>84.60814350633709</v>
+        <v>84.60814350633707</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>49.32913108540032</v>
+        <v>49.32913108540031</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>47.64016268959499</v>
+        <v>47.64016268959498</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>49.59172273604089</v>
+        <v>49.59172273604088</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>47.9607824058905</v>
+        <v>47.96078240589049</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>31.96994732341152</v>
+        <v>31.96994732341151</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>32.77442732453691</v>
+        <v>32.7744273245369</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>41.37518309613141</v>
+        <v>41.3751830961314</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>42.27198047443513</v>
+        <v>42.27198047443512</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>43.986446050604</v>
+        <v>43.98644605060399</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8167,7 +8167,7 @@
         <v>978</v>
       </c>
       <c r="B978">
-        <v>30.8070414420033</v>
+        <v>30.80704144200329</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>21.30690926696486</v>
+        <v>21.30690926696485</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>42.03781671454471</v>
+        <v>42.0378167145447</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>35.89006553654567</v>
+        <v>35.89006553654566</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>42.93959630050567</v>
+        <v>42.93959630050566</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>59.1628367166431</v>
+        <v>59.16283671664309</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>64.64941963142215</v>
+        <v>64.64941963142213</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>66.84569399515027</v>
+        <v>66.84569399515026</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>71.07998436172939</v>
+        <v>71.07998436172937</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>43.34462047593565</v>
+        <v>43.34462047593564</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>53.77238110254498</v>
+        <v>53.77238110254497</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>47.30635477655972</v>
+        <v>47.30635477655971</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>39.14080949737731</v>
+        <v>39.1408094973773</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>47.4156702739804</v>
+        <v>47.41567027398039</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>54.1952826113333</v>
+        <v>54.19528261133329</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>71.9715064613372</v>
+        <v>71.97150646133719</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>64.58846085538059</v>
+        <v>64.58846085538057</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>62.638366164128</v>
+        <v>62.63836616412799</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>68.13725806253082</v>
+        <v>68.1372580625308</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>86.33814184755501</v>
+        <v>86.33814184755499</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>62.5996807870247</v>
+        <v>62.59968078702469</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>62.76790356321631</v>
+        <v>62.7679035632163</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>53.94294844704588</v>
+        <v>53.94294844704587</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>51.09195338294831</v>
+        <v>51.0919533829483</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>23.21351221608011</v>
+        <v>23.2135122160801</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>23.45473898800226</v>
+        <v>23.45473898800225</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>22.82032811061205</v>
+        <v>22.82032811061204</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>24.79419086310008</v>
+        <v>24.79419086310007</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>9.992051913431506</v>
+        <v>9.992051913431505</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>8.681321000122505</v>
+        <v>8.681321000122503</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>26.11673253926713</v>
+        <v>26.11673253926712</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>20.63964512614071</v>
+        <v>20.6396451261407</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>4.175734773054581</v>
+        <v>4.17573477305458</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>8.785331911743416</v>
+        <v>8.785331911743414</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>42.50878187367349</v>
+        <v>42.50878187367348</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>55.11230189130465</v>
+        <v>55.11230189130464</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>33.73745875757809</v>
+        <v>33.73745875757808</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>63.20076948731912</v>
+        <v>63.20076948731911</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>58.79649791831642</v>
+        <v>58.79649791831641</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>67.21525657490223</v>
+        <v>67.21525657490221</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>59.05850342687966</v>
+        <v>59.05850342687965</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>38.19594846873314</v>
+        <v>38.19594846873313</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>35.60490741592818</v>
+        <v>35.60490741592817</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>83.30075360286882</v>
+        <v>83.30075360286881</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>18.14775000571489</v>
+        <v>18.14775000571488</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>3.212586111597935</v>
+        <v>3.212586111597934</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>23.36066318459197</v>
+        <v>23.36066318459196</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>41.68085618945519</v>
+        <v>41.68085618945518</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12847,7 +12847,7 @@
         <v>1563</v>
       </c>
       <c r="B1563">
-        <v>36.63651747201612</v>
+        <v>36.63651747201611</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>36.7587280951379</v>
+        <v>36.75872809513789</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>3.518522968856514</v>
+        <v>3.518522968856513</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>5.581098324747329</v>
+        <v>5.581098324747328</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>38.63907187918909</v>
+        <v>38.63907187918908</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13127,7 +13127,7 @@
         <v>1598</v>
       </c>
       <c r="B1598">
-        <v>59.89668659745111</v>
+        <v>59.8966865974511</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>60.7709175057779</v>
+        <v>60.77091750577789</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>63.40767764061403</v>
+        <v>63.40767764061402</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>70.03811681928831</v>
+        <v>70.03811681928829</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>73.24519319535941</v>
+        <v>73.24519319535939</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>73.59951608110097</v>
+        <v>73.59951608110096</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>57.98351885706985</v>
+        <v>57.98351885706984</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>35.25585980888252</v>
+        <v>35.25585980888251</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>60.80403453314664</v>
+        <v>60.80403453314663</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>73.836610551378</v>
+        <v>73.83661055137799</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>57.01521214533276</v>
+        <v>57.01521214533275</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>38.54235843643085</v>
+        <v>38.54235843643084</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>56.39390154337071</v>
+        <v>56.3939015433707</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>24.37398560786744</v>
+        <v>24.37398560786743</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>53.62467329905966</v>
+        <v>53.62467329905965</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>53.48692991088883</v>
+        <v>53.48692991088882</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>57.74378674744487</v>
+        <v>57.74378674744486</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>9.285399025011269</v>
+        <v>9.285399025011268</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>29.06658046470517</v>
+        <v>29.06658046470516</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13967,7 +13967,7 @@
         <v>1703</v>
       </c>
       <c r="B1703">
-        <v>41.35759883381173</v>
+        <v>41.35759883381172</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>46.50099556231834</v>
+        <v>46.50099556231833</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>49.24765733665247</v>
+        <v>49.24765733665246</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>45.08458323246806</v>
+        <v>45.08458323246805</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>32.28792940035908</v>
+        <v>32.28792940035907</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>42.82764316373704</v>
+        <v>42.82764316373703</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>48.79662100815266</v>
+        <v>48.79662100815265</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>53.13524466449521</v>
+        <v>53.1352446644952</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>50.91142162313293</v>
+        <v>50.91142162313292</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>57.69279238671779</v>
+        <v>57.69279238671778</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14407,7 +14407,7 @@
         <v>1758</v>
       </c>
       <c r="B1758">
-        <v>60.97460187764754</v>
+        <v>60.97460187764753</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>47.53553632879289</v>
+        <v>47.53553632879288</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>57.05624209074535</v>
+        <v>57.05624209074534</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>58.5130982239309</v>
+        <v>58.51309822393089</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>7.795689628391785</v>
+        <v>7.795689628391784</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>50.24644343641033</v>
+        <v>50.24644343641032</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>46.9546695301661</v>
+        <v>46.95466953016609</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>44.67692141769013</v>
+        <v>44.67692141769012</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>44.98786978970981</v>
+        <v>44.9878697897098</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>36.71799122076397</v>
+        <v>36.71799122076396</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>40.54491284360382</v>
+        <v>40.54491284360381</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>90.03933599480914</v>
+        <v>90.03933599480912</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>52.87294608489331</v>
+        <v>52.8729460848933</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>3.459762225604914</v>
+        <v>3.459762225604913</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15111,7 +15111,7 @@
         <v>1846</v>
       </c>
       <c r="B1846">
-        <v>31.19682592342289</v>
+        <v>31.19682592342288</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>42.96773112021716</v>
+        <v>42.96773112021715</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>45.73432172518026</v>
+        <v>45.73432172518025</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>22.06895258169209</v>
+        <v>22.06895258169208</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>35.99205425799982</v>
+        <v>35.99205425799981</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>40.39456740077055</v>
+        <v>40.39456740077054</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>41.83911455033232</v>
+        <v>41.83911455033231</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>20.01112497662759</v>
+        <v>20.01112497662758</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>41.54868115101893</v>
+        <v>41.54868115101892</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>46.75596736595371</v>
+        <v>46.7559673659537</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>4.766126380437861</v>
+        <v>4.76612638043786</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>24.63546358856109</v>
+        <v>24.63546358856108</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>29.95742850092406</v>
+        <v>29.95742850092405</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>42.21102169839357</v>
+        <v>42.21102169839356</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>29.36747650009877</v>
+        <v>29.36747650009876</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>43.79301916508751</v>
+        <v>43.7930191650875</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>44.87826122125047</v>
+        <v>44.87826122125046</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>56.92875618892767</v>
+        <v>56.92875618892766</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>36.17287908885387</v>
+        <v>36.17287908885386</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>48.92645147827963</v>
+        <v>48.92645147827962</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>50.55446109804341</v>
+        <v>50.5544610980434</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16335,7 +16335,7 @@
         <v>1999</v>
       </c>
       <c r="B1999">
-        <v>62.32184944237374</v>
+        <v>62.32184944237373</v>
       </c>
     </row>
     <row r="2000" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>22.42485805104243</v>
+        <v>22.42485805104242</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>35.11811642071169</v>
+        <v>35.11811642071168</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>35.9565926623218</v>
+        <v>35.95659266232179</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>42.18024923933413</v>
+        <v>42.18024923933412</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>37.90522199838108</v>
+        <v>37.90522199838107</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>41.98154707512173</v>
+        <v>41.98154707512172</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>34.48391069304854</v>
+        <v>34.48391069304853</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>38.18803555068928</v>
+        <v>38.18803555068927</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>32.41277766282881</v>
+        <v>32.4127776628288</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>18.96530097516458</v>
+        <v>18.96530097516457</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>11.52970773197599</v>
+        <v>11.52970773197598</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>30.95592152964326</v>
+        <v>30.95592152964325</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>0.6451577923779257</v>
+        <v>0.6451577923779256</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>20.78327924218864</v>
+        <v>20.78327924218863</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>36.32058689233919</v>
+        <v>36.32058689233918</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>37.7041752658594</v>
+        <v>37.70417526585939</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>39.38024853596363</v>
+        <v>39.38024853596362</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>7.846420225184064</v>
+        <v>7.846420225184063</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>7.048006794558961</v>
+        <v>7.04800679455896</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>3.798640267609027</v>
+        <v>3.798640267609026</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -19335,7 +19335,7 @@
         <v>2374</v>
       </c>
       <c r="B2374">
-        <v>49.68579853945118</v>
+        <v>49.68579853945117</v>
       </c>
     </row>
     <row r="2375" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>7.689978904746638</v>
+        <v>7.689978904746637</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>47.1457518473733</v>
+        <v>47.14575184737329</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>48.84995993718902</v>
+        <v>48.84995993718901</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>6.388626264674801</v>
+        <v>6.3886262646748</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>32.6850406577452</v>
+        <v>32.68504065774519</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>42.17761159998617</v>
+        <v>42.17761159998616</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>5.230790512235424</v>
+        <v>5.230790512235423</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>6.657167257400191</v>
+        <v>6.65716725740019</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>40.00478291935096</v>
+        <v>40.00478291935095</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>47.9077365478928</v>
+        <v>47.90773654789279</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>31.2475272131113</v>
+        <v>31.24752721311129</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>41.64011931508127</v>
+        <v>41.64011931508126</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>43.44924683673775</v>
+        <v>43.44924683673774</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>16.68394808891307</v>
+        <v>16.68394808891306</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>15.18465526932936</v>
+        <v>15.18465526932935</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>17.25221283287742</v>
+        <v>17.25221283287741</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>27.71965527812149</v>
+        <v>27.71965527812148</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>41.07449221046487</v>
+        <v>41.07449221046486</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>41.8643186596572</v>
+        <v>41.86431865965719</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>43.23764954682426</v>
+        <v>43.23764954682425</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>44.60072294763818</v>
+        <v>44.60072294763817</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>0.5668023194814285</v>
+        <v>0.5668023194814283</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>0.6286080708247196</v>
+        <v>0.6286080708247195</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>30.511332763994</v>
+        <v>30.51133276399399</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>43.61453890254275</v>
+        <v>43.61453890254274</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>31.65284445957994</v>
+        <v>31.65284445957993</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>37.22002190999086</v>
+        <v>37.22002190999085</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>7.709937042479476</v>
+        <v>7.709937042479475</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>37.87239804205101</v>
+        <v>37.872398042051</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>6.918586623886111</v>
+        <v>6.91858662388611</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>26.09753638623481</v>
+        <v>26.0975363862348</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>30.02102491631357</v>
+        <v>30.02102491631356</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>37.18426724327417</v>
+        <v>37.18426724327416</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>27.00037102793495</v>
+        <v>27.00037102793494</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>25.4300670956836</v>
+        <v>25.43006709568359</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>15.77314191496134</v>
+        <v>15.77314191496133</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>36.18577421455497</v>
+        <v>36.18577421455496</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22079,7 +22079,7 @@
         <v>2717</v>
       </c>
       <c r="B2717">
-        <v>34.2802263211789</v>
+        <v>34.28022632117889</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>29.39561131981026</v>
+        <v>29.39561131981025</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>20.18550224463109</v>
+        <v>20.18550224463108</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>4.177698349013611</v>
+        <v>4.17769834901361</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>51.38502442160966</v>
+        <v>51.38502442160965</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>9.636175751185034</v>
+        <v>9.636175751185032</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>7.228919546724609</v>
+        <v>7.228919546724608</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>0.9923795668527278</v>
+        <v>0.9923795668527275</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24167,7 +24167,7 @@
         <v>2978</v>
       </c>
       <c r="B2978">
-        <v>20.7320797317345</v>
+        <v>20.73207973173449</v>
       </c>
     </row>
     <row r="2979" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>50.89325121873592</v>
+        <v>50.89325121873591</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>3.120327348627344</v>
+        <v>3.120327348627343</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>1.132552513934063</v>
+        <v>1.132552513934062</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>31.6220720005205</v>
+        <v>31.62207200052049</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>11.12506454889627</v>
+        <v>11.12506454889626</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>5.471372527872521</v>
+        <v>5.47137252787252</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>6.644799659568682</v>
+        <v>6.644799659568681</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>6.785649600749324</v>
+        <v>6.785649600749323</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>9.865298689210476</v>
+        <v>9.865298689210473</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>9.792030929545138</v>
+        <v>9.792030929545136</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>47.43354760733874</v>
+        <v>47.43354760733873</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>6.814868783303861</v>
+        <v>6.81486878330386</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>32.38464284311732</v>
+        <v>32.38464284311731</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>60.15927824809168</v>
+        <v>60.15927824809167</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>36.97296302439934</v>
+        <v>36.97296302439933</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>35.99703646565706</v>
+        <v>35.99703646565705</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54679,7 +54679,7 @@
         <v>6792</v>
       </c>
       <c r="B6792">
-        <v>2.545333693615331</v>
+        <v>2.54533369361533</v>
       </c>
     </row>
     <row r="6793" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>7.245272910681913</v>
+        <v>7.245272910681912</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>5.34461930365149</v>
+        <v>5.344619303651489</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>9.41262116289416</v>
+        <v>9.412621162894158</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>7.168664141175837</v>
+        <v>7.168664141175836</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>5.647420300796392</v>
+        <v>5.647420300796391</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>9.883762164646139</v>
+        <v>9.883762164646138</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>9.500659702908028</v>
+        <v>9.500659702908026</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>8.53419933871451</v>
+        <v>8.534199338714508</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>7.376891114144723</v>
+        <v>7.376891114144722</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>2.004324556246487</v>
+        <v>2.004324556246486</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>3.855115056759069</v>
+        <v>3.855115056759068</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>30.50136834867952</v>
+        <v>30.50136834867951</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>49.00030538002229</v>
+        <v>49.00030538002228</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>27.78817528696051</v>
+        <v>27.7881752869605</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>27.44390473784503</v>
+        <v>27.44390473784502</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>27.05634759631927</v>
+        <v>27.05634759631926</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>9.849502160226628</v>
+        <v>9.849502160226626</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>30.69626058938931</v>
+        <v>30.6962605893893</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>51.8820729031793</v>
+        <v>51.88207290317929</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>6.480474728191266</v>
+        <v>6.480474728191265</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>18.36315721913098</v>
+        <v>18.36315721913097</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>39.96375297393837</v>
+        <v>39.96375297393836</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>7.165704123685358</v>
+        <v>7.165704123685357</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>25.0534415038999</v>
+        <v>25.05344150389989</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>1.363639027918534</v>
+        <v>1.363639027918533</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>15.8378226931939</v>
+        <v>15.83782269319389</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>51.14529231198468</v>
+        <v>51.14529231198467</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>45.45150817287206</v>
+        <v>45.45150817287205</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>23.79270850978653</v>
+        <v>23.79270850978652</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60271,7 +60271,7 @@
         <v>7491</v>
       </c>
       <c r="B7491">
-        <v>12.75407061019149</v>
+        <v>12.75407061019148</v>
       </c>
     </row>
     <row r="7492" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>2.742259847333435</v>
+        <v>2.742259847333434</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>3.74820274185541</v>
+        <v>3.748202741855409</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60487,7 +60487,7 @@
         <v>7518</v>
       </c>
       <c r="B7518">
-        <v>16.03532326614778</v>
+        <v>16.03532326614777</v>
       </c>
     </row>
     <row r="7519" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>24.05647244458174</v>
+        <v>24.05647244458173</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>24.44244700249873</v>
+        <v>24.44244700249872</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>26.6506200503965</v>
+        <v>26.65062005039649</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>27.50266548109663</v>
+        <v>27.50266548109662</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>0.8179817838765211</v>
+        <v>0.817981783876521</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>52.99017450035785</v>
+        <v>52.99017450035784</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>42.29220237610276</v>
+        <v>42.29220237610275</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>20.82275591109632</v>
+        <v>20.82275591109631</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>42.15973426662783</v>
+        <v>42.15973426662782</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>41.63015489976678</v>
+        <v>41.63015489976677</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61543,7 +61543,7 @@
         <v>7650</v>
       </c>
       <c r="B7650">
-        <v>38.65167393385153</v>
+        <v>38.65167393385152</v>
       </c>
     </row>
     <row r="7651" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>46.88579783608069</v>
+        <v>46.88579783608068</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61583,7 +61583,7 @@
         <v>7655</v>
       </c>
       <c r="B7655">
-        <v>49.85109060525618</v>
+        <v>49.85109060525617</v>
       </c>
     </row>
     <row r="7656" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>64.48383449457849</v>
+        <v>64.48383449457847</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>21.52038221152579</v>
+        <v>21.52038221152578</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>31.5432358911206</v>
+        <v>31.54323589112059</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>31.72406072197465</v>
+        <v>31.72406072197464</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>38.57811310314753</v>
+        <v>38.57811310314752</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>35.9565926623218</v>
+        <v>35.95659266232179</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>45.20210471897126</v>
+        <v>45.20210471897125</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>49.52519561026476</v>
+        <v>49.52519561026475</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>62.01148721243138</v>
+        <v>62.01148721243137</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>63.6497543185483</v>
+        <v>63.64975431854829</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>62.58737180340092</v>
+        <v>62.58737180340091</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>41.93084578543332</v>
+        <v>41.93084578543331</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>86.91109572813794</v>
+        <v>86.91109572813792</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>83.58884243387293</v>
+        <v>83.58884243387291</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>73.68362746919678</v>
+        <v>73.68362746919676</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>62.37079230583019</v>
+        <v>62.37079230583018</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>47.18912636109518</v>
+        <v>47.18912636109517</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>65.53830409168201</v>
+        <v>65.53830409168199</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63319,7 +63319,7 @@
         <v>7872</v>
       </c>
       <c r="B7872">
-        <v>63.49384052598046</v>
+        <v>63.49384052598045</v>
       </c>
     </row>
     <row r="7873" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>62.67617232811531</v>
+        <v>62.6761723281153</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>64.32088699708278</v>
+        <v>64.32088699708277</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63423,7 +63423,7 @@
         <v>7885</v>
       </c>
       <c r="B7885">
-        <v>57.16848829855265</v>
+        <v>57.16848829855264</v>
       </c>
     </row>
     <row r="7886" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>31.55466566162839</v>
+        <v>31.55466566162838</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63711,7 +63711,7 @@
         <v>7921</v>
       </c>
       <c r="B7921">
-        <v>30.8032315185007</v>
+        <v>30.80323151850069</v>
       </c>
     </row>
     <row r="7922" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>41.4033179158429</v>
+        <v>41.40331791584289</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>48.81948054916824</v>
+        <v>48.81948054916823</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>3.097672957338822</v>
+        <v>3.097672957338821</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>0.9529468586008438</v>
+        <v>0.9529468586008436</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>39.02885636060868</v>
+        <v>39.02885636060867</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>55.01265773815979</v>
+        <v>55.01265773815978</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>44.00725409434895</v>
+        <v>44.00725409434894</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64199,7 +64199,7 @@
         <v>7982</v>
       </c>
       <c r="B7982">
-        <v>7.289614558831374</v>
+        <v>7.289614558831373</v>
       </c>
     </row>
     <row r="7983" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>28.13077533115563</v>
+        <v>28.13077533115562</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>36.64941259771722</v>
+        <v>36.64941259771721</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>44.9447883470266</v>
+        <v>44.94478834702659</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>48.4270584284007</v>
+        <v>48.42705842840069</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64303,7 +64303,7 @@
         <v>7995</v>
       </c>
       <c r="B7995">
-        <v>44.39410786538193</v>
+        <v>44.39410786538192</v>
       </c>
     </row>
     <row r="7996" spans="1:2">
@@ -64391,7 +64391,7 @@
         <v>8006</v>
       </c>
       <c r="B8006">
-        <v>28.26593969418624</v>
+        <v>28.26593969418623</v>
       </c>
     </row>
     <row r="8007" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>8.759805424276013</v>
+        <v>8.759805424276012</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>30.10132638090678</v>
+        <v>30.10132638090677</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>39.18154637175124</v>
+        <v>39.18154637175123</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>5.149521913214633</v>
+        <v>5.149521913214632</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>4.252490078079987</v>
+        <v>4.252490078079986</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>5.099377458499676</v>
+        <v>5.099377458499675</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>8.274391862941227</v>
+        <v>8.274391862941226</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>6.886788416191355</v>
+        <v>6.886788416191354</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>23.96266040510624</v>
+        <v>23.96266040510623</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>9.36675554534366</v>
+        <v>9.366755545343658</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>24.97826878248327</v>
+        <v>24.97826878248326</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>53.92272654537825</v>
+        <v>53.92272654537824</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>2.275488534767897</v>
+        <v>2.275488534767896</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66543,7 +66543,7 @@
         <v>8275</v>
       </c>
       <c r="B8275">
-        <v>46.10388430493222</v>
+        <v>46.10388430493221</v>
       </c>
     </row>
     <row r="8276" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>49.1761480032191</v>
+        <v>49.17614800321909</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>58.91050255235568</v>
+        <v>58.91050255235567</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>39.76270624141669</v>
+        <v>39.76270624141668</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>43.26812893484504</v>
+        <v>43.26812893484503</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66831,7 +66831,7 @@
         <v>8311</v>
       </c>
       <c r="B8311">
-        <v>44.67955905703808</v>
+        <v>44.67955905703807</v>
       </c>
     </row>
     <row r="8312" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>47.8948414221917</v>
+        <v>47.89484142219169</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>38.30291939784453</v>
+        <v>38.30291939784452</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>3.979406484255345</v>
+        <v>3.979406484255344</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>36.17551672820182</v>
+        <v>36.17551672820181</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>53.44853760482419</v>
+        <v>53.44853760482418</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>64.79712743490747</v>
+        <v>64.79712743490745</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>0.5882961494568515</v>
+        <v>0.5882961494568514</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>5.417125078616307</v>
+        <v>5.417125078616306</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>73.65051044182805</v>
+        <v>73.65051044182803</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>54.48542293960803</v>
+        <v>54.48542293960802</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>8.131285274762892</v>
+        <v>8.13128527476289</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>43.92548727456244</v>
+        <v>43.92548727456243</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>48.95693086630041</v>
+        <v>48.9569308663004</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>49.76492771988974</v>
+        <v>49.76492771988973</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>45.97141619545729</v>
+        <v>45.97141619545728</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>50.59256033306938</v>
+        <v>50.59256033306937</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>34.48391069304854</v>
+        <v>34.48391069304853</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>6.410606592574402</v>
+        <v>6.410606592574401</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>0.7954973737904226</v>
+        <v>0.7954973737904225</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>8.514504964916467</v>
+        <v>8.514504964916465</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>30.9852286335094</v>
+        <v>30.98522863350939</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>34.37166448524124</v>
+        <v>34.37166448524123</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>24.62250984865226</v>
+        <v>24.62250984865225</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>64.35869316107009</v>
+        <v>64.35869316107008</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>71.20453955316046</v>
+        <v>71.20453955316044</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>72.1754839042455</v>
+        <v>72.17548390424548</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68975,7 +68975,7 @@
         <v>8579</v>
       </c>
       <c r="B8579">
-        <v>69.50238296061536</v>
+        <v>69.50238296061535</v>
       </c>
     </row>
     <row r="8580" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>62.09266789014057</v>
+        <v>62.09266789014056</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>59.73608366826469</v>
+        <v>59.73608366826468</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>65.20713381799469</v>
+        <v>65.20713381799467</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>73.40345155623653</v>
+        <v>73.40345155623652</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>68.79432333120955</v>
+        <v>68.79432333120954</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>46.33804806482263</v>
+        <v>46.33804806482262</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>53.59624540830951</v>
+        <v>53.5962454083095</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>58.21504497761231</v>
+        <v>58.2150449776123</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>58.07759466048014</v>
+        <v>58.07759466048013</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>58.21533804865097</v>
+        <v>58.21533804865096</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>55.6547763838668</v>
+        <v>55.65477638386679</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>55.83853192510746</v>
+        <v>55.83853192510745</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>56.51347452714454</v>
+        <v>56.51347452714453</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>36.90936660900983</v>
+        <v>36.90936660900982</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>45.17396989925977</v>
+        <v>45.17396989925976</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>53.48956755023678</v>
+        <v>53.48956755023677</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>40.26180622025696</v>
+        <v>40.26180622025695</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>49.52754017857405</v>
+        <v>49.52754017857404</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>86.19776082003622</v>
+        <v>86.19776082003621</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>69.30631843575092</v>
+        <v>69.30631843575091</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>74.06315446426322</v>
+        <v>74.06315446426321</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>71.66554029697475</v>
+        <v>71.66554029697474</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>79.16112518177732</v>
+        <v>79.16112518177731</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>73.1663570859595</v>
+        <v>73.16635708595949</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>72.58285264798477</v>
+        <v>72.58285264798475</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>69.73478829427381</v>
+        <v>69.7347882942738</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>76.33298965869534</v>
+        <v>76.33298965869533</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>80.78122188349724</v>
+        <v>80.78122188349722</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
